--- a/Tables/Table1.xlsx
+++ b/Tables/Table1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HRIDYANSH GAUTAM\Desktop\NPL repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\NPL\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89081FF-5849-442F-8C3B-D5FE08EBA797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48ADE5-C69F-4C38-B0EB-4BBFA93F1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>± 0.9</t>
-  </si>
-  <si>
-    <t>Heading</t>
   </si>
 </sst>
 </file>
@@ -118,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,20 +166,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -192,9 +180,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,198 +461,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+    <row r="1" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1">
+        <v>48.2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>48.4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B5" s="1">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>97.4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19.3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1">
-        <v>48.2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>48.4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
       <c r="B6" s="1">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1">
-        <v>97.1</v>
+        <v>146.1</v>
       </c>
       <c r="D6" s="1">
-        <v>97.4</v>
+        <v>146.4</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1">
-        <v>146.1</v>
+        <v>259.5</v>
       </c>
       <c r="D7" s="1">
-        <v>146.4</v>
+        <v>260.3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>270</v>
-      </c>
-      <c r="C8" s="1">
-        <v>259.5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>260.3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
